--- a/system_development/Mithril/v0.2/Bill of Materials..xlsx
+++ b/system_development/Mithril/v0.2/Bill of Materials..xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayhe\OneDrive\Documents\GitHub\In-situ-monitoring-of-powder-bed-fusion-additive-manufacturing\system_development\Mithril\v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\In-situ-monitoring-of-Powder-bed-fusion-additive-manufacturing\system_development\Mithril\v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3AA924-1233-48B5-BC61-57AA7D981F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC494C9-4CFE-434C-AFEB-9CAFA14D0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Quantity</t>
   </si>
@@ -193,12 +201,39 @@
   </si>
   <si>
     <t>Source 1</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Individual Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Buna-N-Round-Cord-Buna-N-6RTT7</t>
+  </si>
+  <si>
+    <t>glass oring seal</t>
+  </si>
+  <si>
+    <t>Buna-N Round Cord: Buna-N, Round C.S. Shape, 3 mm C.S., 10 ft Overall Lg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,16 +278,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -536,393 +582,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="84" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
         <v>21</v>
       </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>21</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>15.85</v>
+      </c>
+      <c r="E31" s="5">
+        <f>C31*D31</f>
+        <v>15.85</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="5">
+        <f>SUM(E2:E41)</f>
+        <v>15.85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" xr:uid="{A95FFE79-174E-41AB-9DF1-9BD2F928EE60}"/>
-    <hyperlink ref="C11" r:id="rId2" display="https://www.bhphotovideo.com/c/product/1844599-REG/teledyne_flir_bfs_u3_16s2c_cs_blackfly_s_usb3_1_6mp.html?ap=y&amp;smp=Y&amp;gQT=2" xr:uid="{4891E375-734A-4A4B-9BAC-3964BBD1F328}"/>
-    <hyperlink ref="C12" r:id="rId3" display="Glass 1, Glass 2, Glass 3, Glass 4, Laser Vision" xr:uid="{13FCF727-7442-45D9-BB4D-80C533FF6B3E}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{97ABF20C-BCB8-4311-A5AF-ABA3BC0637EB}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{F7D868DF-A5DC-4618-AC89-6027C362519A}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{CFC5186F-8965-491E-B522-5CBD804FA926}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{1F18F390-9DA9-4F4F-BB2A-03391AD9C98B}"/>
-    <hyperlink ref="C17" r:id="rId8" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M6-1-26LG36" xr:uid="{B78E0EA0-AA31-4A36-8070-5C3BCD250734}"/>
-    <hyperlink ref="C18" r:id="rId9" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M4-0-4XY51" xr:uid="{50795801-363E-451B-98E8-5DB674E61DED}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{A2FD2C71-E738-4880-8DBB-B86062E1F360}"/>
-    <hyperlink ref="C20" r:id="rId11" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M5-0-6CE82" xr:uid="{3B69C43E-E6EC-43D9-A46A-D45EDEF1261E}"/>
-    <hyperlink ref="C21" r:id="rId12" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M5-0-23NN83" xr:uid="{4B6EE7E4-0EF5-4B69-9856-764F6BB875AB}"/>
-    <hyperlink ref="C22" r:id="rId13" xr:uid="{6BF3A607-9EBD-46A5-A980-B0061966A5B8}"/>
-    <hyperlink ref="C23" r:id="rId14" xr:uid="{8339ADAE-D606-406F-A861-7448814E0507}"/>
-    <hyperlink ref="C24" r:id="rId15" xr:uid="{586FC2CC-EC22-409B-8101-72A00570BC5C}"/>
-    <hyperlink ref="C25" r:id="rId16" xr:uid="{B0200AF6-DF0E-4DD1-BDD0-C23E5B8BC059}"/>
-    <hyperlink ref="C26" r:id="rId17" xr:uid="{3E55827E-C027-461F-83FE-74DA8471DFE9}"/>
-    <hyperlink ref="C27" r:id="rId18" xr:uid="{3C1F6BAB-E456-4AE7-8FA5-FD86B5DA18B9}"/>
-    <hyperlink ref="C28" r:id="rId19" xr:uid="{E36A8B82-45C1-4D1D-8ACE-1610F6F40364}"/>
-    <hyperlink ref="C29" r:id="rId20" xr:uid="{10F24074-5B35-4864-96D9-0BA807DCAE60}"/>
+    <hyperlink ref="F30" r:id="rId1" xr:uid="{A95FFE79-174E-41AB-9DF1-9BD2F928EE60}"/>
+    <hyperlink ref="F11" r:id="rId2" display="https://www.bhphotovideo.com/c/product/1844599-REG/teledyne_flir_bfs_u3_16s2c_cs_blackfly_s_usb3_1_6mp.html?ap=y&amp;smp=Y&amp;gQT=2" xr:uid="{4891E375-734A-4A4B-9BAC-3964BBD1F328}"/>
+    <hyperlink ref="F12" r:id="rId3" display="Glass 1, Glass 2, Glass 3, Glass 4, Laser Vision" xr:uid="{13FCF727-7442-45D9-BB4D-80C533FF6B3E}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{97ABF20C-BCB8-4311-A5AF-ABA3BC0637EB}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{F7D868DF-A5DC-4618-AC89-6027C362519A}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{CFC5186F-8965-491E-B522-5CBD804FA926}"/>
+    <hyperlink ref="J12" r:id="rId7" xr:uid="{1F18F390-9DA9-4F4F-BB2A-03391AD9C98B}"/>
+    <hyperlink ref="F17" r:id="rId8" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M6-1-26LG36" xr:uid="{B78E0EA0-AA31-4A36-8070-5C3BCD250734}"/>
+    <hyperlink ref="F18" r:id="rId9" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M4-0-4XY51" xr:uid="{50795801-363E-451B-98E8-5DB674E61DED}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{A2FD2C71-E738-4880-8DBB-B86062E1F360}"/>
+    <hyperlink ref="F20" r:id="rId11" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M5-0-6CE82" xr:uid="{3B69C43E-E6EC-43D9-A46A-D45EDEF1261E}"/>
+    <hyperlink ref="F21" r:id="rId12" display="https://www.grainger.com/product/Socket-Head-Cap-Screw-M5-0-23NN83" xr:uid="{4B6EE7E4-0EF5-4B69-9856-764F6BB875AB}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{6BF3A607-9EBD-46A5-A980-B0061966A5B8}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{8339ADAE-D606-406F-A861-7448814E0507}"/>
+    <hyperlink ref="F24" r:id="rId15" xr:uid="{586FC2CC-EC22-409B-8101-72A00570BC5C}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{B0200AF6-DF0E-4DD1-BDD0-C23E5B8BC059}"/>
+    <hyperlink ref="F26" r:id="rId17" xr:uid="{3E55827E-C027-461F-83FE-74DA8471DFE9}"/>
+    <hyperlink ref="F27" r:id="rId18" xr:uid="{3C1F6BAB-E456-4AE7-8FA5-FD86B5DA18B9}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{E36A8B82-45C1-4D1D-8ACE-1610F6F40364}"/>
+    <hyperlink ref="F29" r:id="rId20" xr:uid="{10F24074-5B35-4864-96D9-0BA807DCAE60}"/>
+    <hyperlink ref="F31" r:id="rId21" xr:uid="{845FC70C-B0FA-4D0B-B824-9FA08D2FF1BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
--- a/system_development/Mithril/v0.2/Bill of Materials..xlsx
+++ b/system_development/Mithril/v0.2/Bill of Materials..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayhe\OneDrive\Documents\GitHub\In-situ-monitoring-of-powder-bed-fusion-additive-manufacturing\system_development\Mithril\v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\In-situ-monitoring-of-powder-bed-fusion-additive-manufacturing\system_development\Mithril\v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3AA924-1233-48B5-BC61-57AA7D981F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB4AF3-03AC-4842-A05A-FD24502B2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Cylinder Segment Holder</t>
   </si>
   <si>
-    <t>Head Thing (metal)</t>
-  </si>
-  <si>
     <t>M5 x 20</t>
   </si>
   <si>
@@ -193,6 +190,15 @@
   </si>
   <si>
     <t>Source 1</t>
+  </si>
+  <si>
+    <t>Head Plate (metal)</t>
+  </si>
+  <si>
+    <t>Rubber Seal</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Buna-N-Round-Cord-Buna-N-6RTT7</t>
   </si>
 </sst>
 </file>
@@ -536,21 +542,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -600,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -611,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -622,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -644,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -655,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -666,18 +672,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -685,22 +691,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -711,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -722,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -733,9 +739,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -744,158 +750,169 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -921,8 +938,9 @@
     <hyperlink ref="C27" r:id="rId18" xr:uid="{3C1F6BAB-E456-4AE7-8FA5-FD86B5DA18B9}"/>
     <hyperlink ref="C28" r:id="rId19" xr:uid="{E36A8B82-45C1-4D1D-8ACE-1610F6F40364}"/>
     <hyperlink ref="C29" r:id="rId20" xr:uid="{10F24074-5B35-4864-96D9-0BA807DCAE60}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{B948F647-1980-4846-BB42-49767B59E7B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
--- a/system_development/Mithril/v0.2/Bill of Materials..xlsx
+++ b/system_development/Mithril/v0.2/Bill of Materials..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\In-situ-monitoring-of-powder-bed-fusion-additive-manufacturing\system_development\Mithril\v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AB4AF3-03AC-4842-A05A-FD24502B2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41D2B9-CB04-430F-BA07-26FCB1A9B748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -195,10 +195,16 @@
     <t>Head Plate (metal)</t>
   </si>
   <si>
-    <t>Rubber Seal</t>
-  </si>
-  <si>
     <t>https://www.grainger.com/product/Buna-N-Round-Cord-Buna-N-6RTT7</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Rubber-Cord-Buna-N-848F88</t>
+  </si>
+  <si>
+    <t>Rubber Seal (100ft)</t>
+  </si>
+  <si>
+    <t>Rubber Seal (10ft)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +265,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,12 +915,23 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
     </row>
